--- a/biology/Histoire de la zoologie et de la botanique/Jason_Andrew_Dunlop/Jason_Andrew_Dunlop.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jason_Andrew_Dunlop/Jason_Andrew_Dunlop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jason Andrew Dunlop (né le 7 mai 1970 à Basingstoke) est un paléontologue et zoologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge de trois ans, ses parents ont déménagé avec lui à Cleethorpes, où il a fréquenté l'école Signhills de 1974 à 1981 et l'école Lindsey de 1981 à 1988. Au début, il voulait étudier la médecine, mais ensuite, sur les conseils de son professeur de biologie, qui lui a montré un article de John Pirt (Les zoologistes n'ont pas besoin de postuler), il a décidé, entre autres, d'étudier la zoologie.
 Après avoir obtenu un BA de l'Université de Leeds en 1991, il a déménagé à l'Université de Manchester, où il a terminé son doctorat. (Paléobiologie des Trigonotarbides) avec Paul Selden. Pendant trois années supplémentaires, il a travaillé en tant que boursier postdoctoral à l'Université de Manchester en se concentrant sur l'évolution des chélicères (Origines et évolution précoce des chélicères).
